--- a/net_helper/data/DataTable.xlsx
+++ b/net_helper/data/DataTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Match" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>timespan</t>
   </si>
@@ -33,22 +33,61 @@
     <t>three</t>
   </si>
   <si>
-    <t>two</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
     <t>give_type</t>
   </si>
   <si>
-    <t>offer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">points </t>
-  </si>
-  <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>win</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>point_0_1</t>
+  </si>
+  <si>
+    <t>point_0_0</t>
+  </si>
+  <si>
+    <t>point_1_0</t>
+  </si>
+  <si>
+    <t>…..</t>
+  </si>
+  <si>
+    <t>……</t>
+  </si>
+  <si>
+    <t>total0</t>
+  </si>
+  <si>
+    <t>total1</t>
+  </si>
+  <si>
+    <t>total2</t>
+  </si>
+  <si>
+    <t>total_more</t>
+  </si>
+  <si>
+    <t>point_other_3</t>
+  </si>
+  <si>
+    <t>point_other_1</t>
+  </si>
+  <si>
+    <t>point_other_0</t>
   </si>
 </sst>
 </file>
@@ -383,23 +422,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,40 +453,46 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
       <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="E2">
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="F2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="E3">
+    <row r="3" spans="1:18">
+      <c r="F3">
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="E4">
+    <row r="4" spans="1:18">
+      <c r="F4">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -448,19 +500,51 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>3</v>
       </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
       <c r="F7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="R12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -468,16 +552,28 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
         <v>2</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>3</v>
       </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -489,7 +585,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>

--- a/net_helper/data/DataTable.xlsx
+++ b/net_helper/data/DataTable.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Match" sheetId="1" r:id="rId1"/>
-    <sheet name="Json" sheetId="2" r:id="rId2"/>
+    <sheet name="all" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="71">
   <si>
     <t>timespan</t>
   </si>
@@ -88,6 +88,147 @@
   </si>
   <si>
     <t>point_other_0</t>
+  </si>
+  <si>
+    <t>time_span</t>
+  </si>
+  <si>
+    <t>wdl_spread_count</t>
+  </si>
+  <si>
+    <t>total_0</t>
+  </si>
+  <si>
+    <t>total_1</t>
+  </si>
+  <si>
+    <t>total_2</t>
+  </si>
+  <si>
+    <t>total_3</t>
+  </si>
+  <si>
+    <t>total_4</t>
+  </si>
+  <si>
+    <t>total_5</t>
+  </si>
+  <si>
+    <t>total_6</t>
+  </si>
+  <si>
+    <t>point_w_1_0</t>
+  </si>
+  <si>
+    <t>point_w_2_0</t>
+  </si>
+  <si>
+    <t>point_w_3_0</t>
+  </si>
+  <si>
+    <t>point_w_4_0</t>
+  </si>
+  <si>
+    <t>point_w_5_0</t>
+  </si>
+  <si>
+    <t>point_w_2_1</t>
+  </si>
+  <si>
+    <t>point_w_3_1</t>
+  </si>
+  <si>
+    <t>point_w_4_1</t>
+  </si>
+  <si>
+    <t>point_w_5_1</t>
+  </si>
+  <si>
+    <t>point_w_3_2</t>
+  </si>
+  <si>
+    <t>point_w_4_2</t>
+  </si>
+  <si>
+    <t>point_w_5_2</t>
+  </si>
+  <si>
+    <t>point_w_other</t>
+  </si>
+  <si>
+    <t>wdl_w</t>
+  </si>
+  <si>
+    <t>wdl_d</t>
+  </si>
+  <si>
+    <t>wdl_l</t>
+  </si>
+  <si>
+    <t>wdl_spread_w</t>
+  </si>
+  <si>
+    <t>wdl_spread_d</t>
+  </si>
+  <si>
+    <t>wdl_spread_l</t>
+  </si>
+  <si>
+    <t>point_d_0_0</t>
+  </si>
+  <si>
+    <t>point_d_1_1</t>
+  </si>
+  <si>
+    <t>point_d_2_2</t>
+  </si>
+  <si>
+    <t>point_d_3_3</t>
+  </si>
+  <si>
+    <t>point_d_other</t>
+  </si>
+  <si>
+    <t>point_l_0_1</t>
+  </si>
+  <si>
+    <t>point_l_0_2</t>
+  </si>
+  <si>
+    <t>point_l_0_3</t>
+  </si>
+  <si>
+    <t>point_l_0_4</t>
+  </si>
+  <si>
+    <t>point_l_0_5</t>
+  </si>
+  <si>
+    <t>point_l_1_2</t>
+  </si>
+  <si>
+    <t>point_l_1_3</t>
+  </si>
+  <si>
+    <t>point_l_1_4</t>
+  </si>
+  <si>
+    <t>point_l_1_5</t>
+  </si>
+  <si>
+    <t>point_l_2_3</t>
+  </si>
+  <si>
+    <t>point_l_2_4</t>
+  </si>
+  <si>
+    <t>point_l_2_5</t>
+  </si>
+  <si>
+    <t>point_l_other</t>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
   </si>
 </sst>
 </file>
@@ -424,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -583,19 +724,417 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/net_helper/data/DataTable.xlsx
+++ b/net_helper/data/DataTable.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="80">
   <si>
     <t>timespan</t>
   </si>
@@ -229,6 +229,33 @@
   </si>
   <si>
     <t>nvarchar(50)</t>
+  </si>
+  <si>
+    <t>half_w_w</t>
+  </si>
+  <si>
+    <t>half_w_d</t>
+  </si>
+  <si>
+    <t>half_w_l</t>
+  </si>
+  <si>
+    <t>half_d_w</t>
+  </si>
+  <si>
+    <t>half_d_d</t>
+  </si>
+  <si>
+    <t>half_d_l</t>
+  </si>
+  <si>
+    <t>half_l_w</t>
+  </si>
+  <si>
+    <t>half_l_d</t>
+  </si>
+  <si>
+    <t>half_l_l</t>
   </si>
 </sst>
 </file>
@@ -724,10 +751,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -906,7 +933,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
         <v>70</v>
@@ -914,7 +941,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
         <v>70</v>
@@ -922,7 +949,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
         <v>70</v>
@@ -930,7 +957,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
         <v>70</v>
@@ -938,7 +965,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
         <v>70</v>
@@ -954,7 +981,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
         <v>70</v>
@@ -962,7 +989,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
         <v>70</v>
@@ -970,7 +997,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
         <v>70</v>
@@ -1050,7 +1077,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
         <v>70</v>
@@ -1058,7 +1085,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
         <v>70</v>
@@ -1066,7 +1093,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
         <v>70</v>
@@ -1074,7 +1101,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B43" t="s">
         <v>70</v>
@@ -1082,7 +1109,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
         <v>70</v>
@@ -1098,7 +1125,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B46" t="s">
         <v>70</v>
@@ -1106,7 +1133,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
         <v>70</v>
@@ -1114,7 +1141,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
         <v>70</v>
@@ -1133,6 +1160,78 @@
         <v>69</v>
       </c>
       <c r="B50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" t="s">
         <v>70</v>
       </c>
     </row>

--- a/net_helper/data/DataTable.xlsx
+++ b/net_helper/data/DataTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Match" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>timespan</t>
   </si>
@@ -256,6 +256,47 @@
   </si>
   <si>
     <t>half_l_l</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>point_w……</t>
+  </si>
+  <si>
+    <t>point_l……</t>
+  </si>
+  <si>
+    <t>ww,dw,lw</t>
+  </si>
+  <si>
+    <t>wd,dd,ld</t>
+  </si>
+  <si>
+    <t>wl,dl,ll</t>
+  </si>
+  <si>
+    <t>point_d……</t>
+  </si>
+  <si>
+    <t>spread_d=(point_w_1_0+point _w_2_1+
+                      point_w_3_2+point_w_other)</t>
+  </si>
+  <si>
+    <t>spread_w =wdl-
+                      (point_w_1_0,point _w_2_1,
+                       point_w_3_2,point_w_other)</t>
+  </si>
+  <si>
+    <t>spread_l=wdl_l +(point_d_0_0+  point_d_1_1….)
+or
+spread_l=wdl_l+wdl_d</t>
   </si>
 </sst>
 </file>
@@ -753,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1242,12 +1283,75 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="55.28515625" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" customWidth="1"/>
+    <col min="3" max="3" width="42.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" customHeight="1">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60">
+      <c r="A3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>